--- a/indicadores/tablas/130101.xlsx
+++ b/indicadores/tablas/130101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -75,12 +75,6 @@
     <t xml:space="preserve">Educación</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accesibilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -103,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de niños de 4 a 17 años que no asisten a centros educativos / Cantidad de población de 4 a 17 años)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
   </si>
 </sst>
 </file>
@@ -624,6 +630,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/130101.xlsx
+++ b/indicadores/tablas/130101.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/130101.xlsx
+++ b/indicadores/tablas/130101.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/130101.xlsx
+++ b/indicadores/tablas/130101.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,100 +21,109 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas de 4 a 17 años que no asisten a centros educativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Educación</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">No asistencia a centros educativos (4 a 17 años)</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de personas de 4 a 17 años que no asisten a centros educativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el porcentaje de personas de 4 a 17 años que no asisten a centros educativos.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de niños de 4 a 17 años que no asisten a centros educativos / Cantidad de población de 4 a 17 años)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
   </si>
   <si>
     <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -433,12 +442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -453,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>8.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>8.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="7">
@@ -493,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>8.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6.6</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="11">
@@ -525,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>6.1</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="12">
@@ -533,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="13">
@@ -541,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>4.8</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -567,12 +576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -636,6 +645,22 @@
       </c>
       <c r="B8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/130101.xlsx
+++ b/indicadores/tablas/130101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,21 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
@@ -63,9 +78,6 @@
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -108,13 +120,20 @@
     <t xml:space="preserve">observaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin observaciones</t>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Las estimaciones desde 2020 hasta mediados de 2021 se calculan a partir del formulario telefónico. A partir de julio de 2021, se considera el formulario de implantación. A su vez, respecto a la forma de preguntar asistencia a centros educativos, el INE realizó un cambio metodológico en el relevamiento. Anteriormente, se consultaba a las personas por la asistencia a cada nivel educativo. Se generaban, así, ocho variables de asistencia, una correspondiente a cada nivel.  El porcentaje de personas que no asisten era un indicador resumen de esta información.  A partir de 2020, se consulta a las personas si asisten a un establecimiento de enseñanaza de manera general, mediante una única pregunta. A partir de esta fecha, el porcentaje de no asistentes se calcula únicamente a partir de esta pregunta. Cabe considerar que durante 2020 y el primer semestre de 2021, esta pregunta se realiza únicamente a mayores de 3 años de edad. A partir del segundo semestre de 2021, se realiza a todas las personas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -462,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>8.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11">
@@ -534,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>8.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="12">
@@ -542,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>8.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>8.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -566,6 +585,46 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -585,82 +644,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
